--- a/biology/Botanique/Dendroseris/Dendroseris.xlsx
+++ b/biology/Botanique/Dendroseris/Dendroseris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendroseris est un genre de plante à fleurs de la famille des Asteraceae, endémique de l'archipel Juan Fernández (Chili), comportant 11 espèces.
 Le genre est maintenant considéré comme un synonyme de Sonchus.
@@ -512,12 +524,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dendroseris berteroana (Decne.) Hook. &amp; Arn., Comp. Bot. Mag. 1 : 32 (1835) : Isla Robinson Crusoe
 Dendroseris gigantea Johow, Est. Fl. Islas de Juan Fernandez 69 (1896) : Isla Alejandro Selkirk.
 Dendroseris litoralis Skottsb., Nat. Hist. Juan Fernandez 2 : 204 (1922) : Isla Santa Clara.
-Dendroseris macrantha (Bertero ex Decne.) Skottsb., Nat. Hist. Juan Fernandez  2: 202 (1921) : Isla Robinson Crusoe. Mabberley (2008)[1] signale que cette espèce s’est éteinte en 1980. Toutefois elle est encore présente sur un îlot isolé, le Morro Juanango (Danton &amp; Perrier, 2006)[2]
+Dendroseris macrantha (Bertero ex Decne.) Skottsb., Nat. Hist. Juan Fernandez  2: 202 (1921) : Isla Robinson Crusoe. Mabberley (2008) signale que cette espèce s’est éteinte en 1980. Toutefois elle est encore présente sur un îlot isolé, le Morro Juanango (Danton &amp; Perrier, 2006)
 Dendroseris macrophylla Don, Philos. Mag. Ann. Chem. 11 : 388 (1832) : Isla Alejandro Selkirk.
 Dendroseris marginata (Bertero ex Decne.) Hook. &amp; Arn., Comp. Bot. Mag. 1 : 32 (1835) : Isla Robinson Crusoe.
 Dendroseris micrantha (Bertero ex Decne.) Hook. &amp; Arn., Comp. Bot. Mag. 1 : 32 (1835) : Isla Robinson Crusoe.
